--- a/docs/del-StandardFormQuestion.xlsx
+++ b/docs/del-StandardFormQuestion.xlsx
@@ -159,7 +159,7 @@
     <t>del-StandardFormQuestion</t>
   </si>
   <si>
-    <t>A defintiion of a standard form question.</t>
+    <t>A definition of a standard form question.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>

--- a/docs/del-StandardFormQuestion.xlsx
+++ b/docs/del-StandardFormQuestion.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$93</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2925" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="454">
   <si>
     <t>Path</t>
   </si>
@@ -149,7 +149,7 @@
     <t>del-StandardFormQuestion</t>
   </si>
   <si>
-    <t>A definition of a standard form question.</t>
+    <t>A DEL question (item). Used for searching purposes. Links back to StandardFormLibrary.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -847,6 +847,148 @@
     <t>Measures must be able to provide enough information for consumers of the content (and/or interventions or results produced by the content) to be able to determine and understand the justification for and evidence in support of the content.</t>
   </si>
   <si>
+    <t>Measure.relatedArtifact.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Measure.relatedArtifact.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Measure.relatedArtifact.type</t>
+  </si>
+  <si>
+    <t>documentation | justification | citation | predecessor | successor | derived-from | depends-on | composed-of</t>
+  </si>
+  <si>
+    <t>The type of relationship to the related artifact.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/related-artifact-type|4.0.0</t>
+  </si>
+  <si>
+    <t>RelatedArtifact.type</t>
+  </si>
+  <si>
+    <t>Measure.relatedArtifact.label</t>
+  </si>
+  <si>
+    <t>Short label</t>
+  </si>
+  <si>
+    <t>A short label that can be used to reference the citation from elsewhere in the containing artifact, such as a footnote index.</t>
+  </si>
+  <si>
+    <t>RelatedArtifact.label</t>
+  </si>
+  <si>
+    <t>Measure.relatedArtifact.display</t>
+  </si>
+  <si>
+    <t>Brief description of the related artifact</t>
+  </si>
+  <si>
+    <t>A brief description of the document or knowledge resource being referenced, suitable for display to a consumer.</t>
+  </si>
+  <si>
+    <t>RelatedArtifact.display</t>
+  </si>
+  <si>
+    <t>Measure.relatedArtifact.citation</t>
+  </si>
+  <si>
+    <t>Bibliographic citation for the artifact</t>
+  </si>
+  <si>
+    <t>A bibliographic citation for the related artifact. This text SHOULD be formatted according to an accepted citation format.</t>
+  </si>
+  <si>
+    <t>Additional structured information about citations should be captured as extensions.</t>
+  </si>
+  <si>
+    <t>RelatedArtifact.citation</t>
+  </si>
+  <si>
+    <t>Measure.relatedArtifact.url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">url
+</t>
+  </si>
+  <si>
+    <t>Where the artifact can be accessed</t>
+  </si>
+  <si>
+    <t>A url for the artifact that can be followed to access the actual content.</t>
+  </si>
+  <si>
+    <t>If a document or resource element is present, this element SHALL NOT be provided (use the url or reference in the Attachment or resource reference).</t>
+  </si>
+  <si>
+    <t>RelatedArtifact.url</t>
+  </si>
+  <si>
+    <t>Measure.relatedArtifact.document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attachment
+</t>
+  </si>
+  <si>
+    <t>What document is being referenced</t>
+  </si>
+  <si>
+    <t>The document being referenced, represented as an attachment. This is exclusive with the resource element.</t>
+  </si>
+  <si>
+    <t>RelatedArtifact.document</t>
+  </si>
+  <si>
+    <t>Measure.relatedArtifact.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(Resource)
+</t>
+  </si>
+  <si>
+    <t>What resource is being referenced</t>
+  </si>
+  <si>
+    <t>The related resource, such as a library, value set, profile, or other knowledge resource.</t>
+  </si>
+  <si>
+    <t>If the type is predecessor, this is a reference to the succeeding knowledge resource. If the type is successor, this is a reference to the prior knowledge resource.</t>
+  </si>
+  <si>
+    <t>RelatedArtifact.resource</t>
+  </si>
+  <si>
     <t>Measure.library</t>
   </si>
   <si>
@@ -1024,25 +1166,7 @@
     <t>Measure.group.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Measure.group.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Measure.group.modifierExtension</t>
@@ -1440,7 +1564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM84"/>
+  <dimension ref="A1:AM93"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1476,7 +1600,7 @@
     <col min="25" max="25" width="61.48046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="43.70703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2616,7 +2740,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>48</v>
@@ -2732,7 +2856,7 @@
         <v>41</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>40</v>
@@ -2845,7 +2969,7 @@
         <v>41</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>40</v>
@@ -3180,7 +3304,7 @@
         <v>41</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>40</v>
@@ -3400,7 +3524,7 @@
         <v>41</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>40</v>
@@ -3626,7 +3750,7 @@
         <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>40</v>
@@ -3737,7 +3861,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3850,7 +3974,7 @@
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>40</v>
@@ -3958,7 +4082,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>48</v>
@@ -4072,7 +4196,7 @@
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>40</v>
@@ -4185,7 +4309,7 @@
         <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>40</v>
@@ -4296,7 +4420,7 @@
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>40</v>
@@ -4407,7 +4531,7 @@
         <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>40</v>
@@ -4516,7 +4640,7 @@
         <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>40</v>
@@ -4627,7 +4751,7 @@
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>40</v>
@@ -4738,7 +4862,7 @@
         <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>40</v>
@@ -4851,7 +4975,7 @@
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>40</v>
@@ -4964,7 +5088,7 @@
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>40</v>
@@ -5075,7 +5199,7 @@
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>40</v>
@@ -5184,7 +5308,7 @@
         <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
@@ -5293,7 +5417,7 @@
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>40</v>
@@ -5402,7 +5526,7 @@
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>40</v>
@@ -5624,7 +5748,7 @@
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>40</v>
@@ -5636,13 +5760,13 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5693,13 +5817,13 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>40</v>
@@ -5717,23 +5841,23 @@
         <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>40</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>40</v>
@@ -5742,21 +5866,21 @@
         <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>272</v>
+        <v>94</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M39" s="2"/>
-      <c r="N39" t="s" s="2">
-        <v>274</v>
-      </c>
+      <c r="M39" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>40</v>
       </c>
@@ -5792,48 +5916,48 @@
         <v>40</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>40</v>
+        <v>274</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>40</v>
+        <v>275</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>40</v>
+        <v>276</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5841,7 +5965,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>48</v>
@@ -5856,13 +5980,13 @@
         <v>49</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>199</v>
+        <v>67</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5889,13 +6013,13 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
@@ -5913,10 +6037,10 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>48</v>
@@ -5942,7 +6066,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5950,7 +6074,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>48</v>
@@ -5965,13 +6089,13 @@
         <v>49</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5998,13 +6122,13 @@
         <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>284</v>
+        <v>40</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>40</v>
@@ -6022,7 +6146,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -6051,7 +6175,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6059,10 +6183,10 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>40</v>
@@ -6074,13 +6198,13 @@
         <v>49</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6107,13 +6231,13 @@
         <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>288</v>
+        <v>40</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>289</v>
+        <v>40</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>40</v>
@@ -6131,13 +6255,13 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>40</v>
@@ -6160,7 +6284,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6183,16 +6307,16 @@
         <v>49</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6242,7 +6366,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6271,7 +6395,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6294,16 +6418,16 @@
         <v>49</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>119</v>
+        <v>297</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6353,7 +6477,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6382,7 +6506,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6405,18 +6529,16 @@
         <v>49</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>186</v>
+        <v>303</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>301</v>
-      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>40</v>
       </c>
@@ -6464,7 +6586,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6493,7 +6615,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6501,7 +6623,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>48</v>
@@ -6516,15 +6638,17 @@
         <v>49</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>186</v>
+        <v>308</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
@@ -6573,7 +6697,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6602,7 +6726,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6613,7 +6737,7 @@
         <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>40</v>
@@ -6622,21 +6746,19 @@
         <v>40</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>199</v>
+        <v>314</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>308</v>
-      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>40</v>
       </c>
@@ -6660,13 +6782,13 @@
         <v>40</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>309</v>
+        <v>40</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>310</v>
+        <v>40</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>40</v>
@@ -6684,13 +6806,13 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>40</v>
@@ -6713,7 +6835,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6724,7 +6846,7 @@
         <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>40</v>
@@ -6739,14 +6861,14 @@
         <v>186</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>40</v>
@@ -6795,13 +6917,13 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>40</v>
@@ -6824,7 +6946,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6835,7 +6957,7 @@
         <v>41</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>40</v>
@@ -6847,18 +6969,16 @@
         <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>318</v>
-      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
       </c>
@@ -6882,13 +7002,13 @@
         <v>40</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>40</v>
+        <v>324</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>40</v>
+        <v>325</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>40</v>
@@ -6906,7 +7026,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6935,7 +7055,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6946,7 +7066,7 @@
         <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>40</v>
@@ -6955,16 +7075,16 @@
         <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>320</v>
+        <v>199</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6991,13 +7111,13 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>40</v>
+        <v>329</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>40</v>
@@ -7015,19 +7135,19 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>323</v>
+        <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>40</v>
@@ -7044,7 +7164,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7055,7 +7175,7 @@
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>40</v>
@@ -7064,16 +7184,16 @@
         <v>40</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7100,13 +7220,13 @@
         <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>40</v>
+        <v>334</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>40</v>
+        <v>335</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>40</v>
@@ -7124,13 +7244,13 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>40</v>
@@ -7148,23 +7268,23 @@
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>328</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>40</v>
@@ -7173,19 +7293,19 @@
         <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>94</v>
+        <v>337</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>96</v>
+        <v>339</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7235,13 +7355,13 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>40</v>
@@ -7259,48 +7379,46 @@
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>328</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>333</v>
+        <v>40</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>49</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7348,13 +7466,13 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>40</v>
@@ -7372,12 +7490,12 @@
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7388,7 +7506,7 @@
         <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>40</v>
@@ -7397,19 +7515,21 @@
         <v>40</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7457,7 +7577,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7486,7 +7606,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7497,7 +7617,7 @@
         <v>41</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>40</v>
@@ -7506,16 +7626,16 @@
         <v>40</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7566,7 +7686,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7595,7 +7715,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7606,7 +7726,7 @@
         <v>41</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>40</v>
@@ -7615,19 +7735,21 @@
         <v>40</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>320</v>
+        <v>199</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>40</v>
       </c>
@@ -7651,13 +7773,13 @@
         <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>40</v>
+        <v>355</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>40</v>
+        <v>356</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>40</v>
@@ -7675,19 +7797,19 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>323</v>
+        <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>40</v>
@@ -7704,7 +7826,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7715,7 +7837,7 @@
         <v>41</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>40</v>
@@ -7724,19 +7846,21 @@
         <v>40</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
       </c>
@@ -7784,13 +7908,13 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>40</v>
@@ -7808,23 +7932,23 @@
         <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>328</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>40</v>
@@ -7833,21 +7957,21 @@
         <v>40</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>94</v>
+        <v>362</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>40</v>
       </c>
@@ -7895,13 +8019,13 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>40</v>
@@ -7919,48 +8043,44 @@
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>328</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>333</v>
+        <v>40</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>93</v>
+        <v>366</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>40</v>
       </c>
@@ -8008,7 +8128,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8020,7 +8140,7 @@
         <v>40</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>40</v>
+        <v>369</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>40</v>
@@ -8032,12 +8152,12 @@
         <v>40</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8060,13 +8180,13 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>350</v>
+        <v>268</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>351</v>
+        <v>269</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8093,13 +8213,13 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>352</v>
+        <v>40</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>353</v>
+        <v>40</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>40</v>
@@ -8117,7 +8237,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>349</v>
+        <v>270</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8141,23 +8261,23 @@
         <v>40</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>40</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>40</v>
@@ -8169,15 +8289,17 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>355</v>
+        <v>94</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>40</v>
@@ -8226,13 +8348,13 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>354</v>
+        <v>277</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
@@ -8250,46 +8372,48 @@
         <v>40</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>40</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>40</v>
+        <v>373</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>358</v>
+        <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>40</v>
       </c>
@@ -8337,13 +8461,13 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>40</v>
@@ -8361,12 +8485,12 @@
         <v>40</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8377,7 +8501,7 @@
         <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>40</v>
@@ -8389,13 +8513,13 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>320</v>
+        <v>199</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8446,19 +8570,19 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>323</v>
+        <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>40</v>
@@ -8475,7 +8599,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8501,10 +8625,10 @@
         <v>119</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>325</v>
+        <v>381</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8555,7 +8679,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8579,16 +8703,16 @@
         <v>40</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>328</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8607,17 +8731,15 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>93</v>
+        <v>366</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>94</v>
+        <v>384</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>40</v>
@@ -8666,7 +8788,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>331</v>
+        <v>383</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8678,7 +8800,7 @@
         <v>40</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>40</v>
+        <v>369</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>40</v>
@@ -8690,48 +8812,44 @@
         <v>40</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>328</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>333</v>
+        <v>40</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>334</v>
+        <v>268</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>40</v>
       </c>
@@ -8779,13 +8897,13 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>336</v>
+        <v>270</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>40</v>
@@ -8803,23 +8921,23 @@
         <v>40</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>90</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>40</v>
@@ -8831,15 +8949,17 @@
         <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>369</v>
+        <v>94</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>40</v>
@@ -8888,13 +9008,13 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>368</v>
+        <v>277</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>40</v>
@@ -8912,44 +9032,48 @@
         <v>40</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>40</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>40</v>
+        <v>373</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>40</v>
       </c>
@@ -8997,13 +9121,13 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>40</v>
@@ -9021,12 +9145,12 @@
         <v>40</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9049,13 +9173,13 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>358</v>
+        <v>199</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9082,13 +9206,13 @@
         <v>40</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>40</v>
+        <v>392</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>40</v>
+        <v>393</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>40</v>
@@ -9106,7 +9230,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9135,7 +9259,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9146,7 +9270,7 @@
         <v>41</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>40</v>
@@ -9158,17 +9282,15 @@
         <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>320</v>
+        <v>119</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>40</v>
@@ -9217,19 +9339,19 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>323</v>
+        <v>40</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>40</v>
@@ -9246,7 +9368,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9254,7 +9376,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>48</v>
@@ -9269,15 +9391,17 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>119</v>
+        <v>398</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>325</v>
+        <v>399</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>40</v>
@@ -9326,10 +9450,10 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>327</v>
+        <v>397</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>48</v>
@@ -9350,16 +9474,16 @@
         <v>40</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>328</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9378,17 +9502,15 @@
         <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>93</v>
+        <v>366</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>94</v>
+        <v>403</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>40</v>
@@ -9437,7 +9559,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>331</v>
+        <v>402</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9449,7 +9571,7 @@
         <v>40</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>40</v>
+        <v>369</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>40</v>
@@ -9461,48 +9583,44 @@
         <v>40</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>328</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>333</v>
+        <v>40</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>334</v>
+        <v>268</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>40</v>
       </c>
@@ -9550,13 +9668,13 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>336</v>
+        <v>270</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>40</v>
@@ -9574,23 +9692,23 @@
         <v>40</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>90</v>
+        <v>271</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>40</v>
@@ -9602,15 +9720,17 @@
         <v>40</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>385</v>
+        <v>94</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>40</v>
@@ -9659,13 +9779,13 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>384</v>
+        <v>277</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>40</v>
@@ -9683,44 +9803,48 @@
         <v>40</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>40</v>
+        <v>271</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>40</v>
+        <v>373</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>40</v>
       </c>
@@ -9768,13 +9892,13 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>40</v>
@@ -9792,12 +9916,12 @@
         <v>40</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9805,7 +9929,7 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>48</v>
@@ -9820,13 +9944,13 @@
         <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>358</v>
+        <v>199</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9877,10 +10001,10 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>48</v>
@@ -9906,7 +10030,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9917,7 +10041,7 @@
         <v>41</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>40</v>
@@ -9929,17 +10053,15 @@
         <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>320</v>
+        <v>119</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>40</v>
@@ -9988,19 +10110,19 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>323</v>
+        <v>40</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>40</v>
@@ -10017,7 +10139,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10040,13 +10162,13 @@
         <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>119</v>
+        <v>398</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>325</v>
+        <v>415</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>326</v>
+        <v>416</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10097,7 +10219,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>327</v>
+        <v>414</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10121,16 +10243,16 @@
         <v>40</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>328</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10149,16 +10271,16 @@
         <v>40</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>93</v>
+        <v>366</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>94</v>
+        <v>418</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>330</v>
+        <v>419</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>96</v>
+        <v>420</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -10208,7 +10330,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>331</v>
+        <v>417</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10220,7 +10342,7 @@
         <v>40</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>40</v>
+        <v>369</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>40</v>
@@ -10232,48 +10354,44 @@
         <v>40</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>328</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>333</v>
+        <v>40</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>334</v>
+        <v>268</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>40</v>
       </c>
@@ -10321,13 +10439,13 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>336</v>
+        <v>270</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>40</v>
@@ -10345,23 +10463,23 @@
         <v>40</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>90</v>
+        <v>271</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>40</v>
@@ -10373,15 +10491,17 @@
         <v>40</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>401</v>
+        <v>94</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M81" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>40</v>
@@ -10430,13 +10550,13 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>400</v>
+        <v>277</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>40</v>
@@ -10454,16 +10574,16 @@
         <v>40</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>40</v>
+        <v>271</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>40</v>
+        <v>373</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10476,22 +10596,26 @@
         <v>40</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>40</v>
       </c>
@@ -10515,13 +10639,13 @@
         <v>40</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>406</v>
+        <v>40</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>407</v>
+        <v>40</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>40</v>
@@ -10539,7 +10663,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10563,12 +10687,12 @@
         <v>40</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10591,13 +10715,13 @@
         <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10648,7 +10772,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -10677,7 +10801,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10685,7 +10809,7 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>48</v>
@@ -10700,13 +10824,13 @@
         <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>358</v>
+        <v>119</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10757,10 +10881,10 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>48</v>
@@ -10784,8 +10908,997 @@
         <v>40</v>
       </c>
     </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AM84">
+  <autoFilter ref="A1:AM93">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10795,7 +11908,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI83">
+  <conditionalFormatting sqref="A2:AI92">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
